--- a/HOBO_Data/HOBO_tempProV2_logger_names.xlsx
+++ b/HOBO_Data/HOBO_tempProV2_logger_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\HOBO_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941D9C0D-B850-487A-BE1C-281DDDED7D04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4081F-BCD8-4B5B-AFC1-399ABFBE2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" xr2:uid="{3CC198BB-0DF2-4641-B507-81C8D0AA20EB}"/>
+    <workbookView xWindow="405" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{3CC198BB-0DF2-4641-B507-81C8D0AA20EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>black-01</t>
   </si>
@@ -60,13 +60,13 @@
     <t>black-11</t>
   </si>
   <si>
-    <t>black012</t>
-  </si>
-  <si>
     <t>Temp_ProV2_Logger_Name</t>
   </si>
   <si>
     <t>Serial_Number</t>
+  </si>
+  <si>
+    <t>black-12</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -433,17 +433,17 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
         <v>21096997</v>

--- a/HOBO_Data/HOBO_tempProV2_logger_names.xlsx
+++ b/HOBO_Data/HOBO_tempProV2_logger_names.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kag326\Documents\HolgersonLab_Helpful_Code\HOBO_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4081F-BCD8-4B5B-AFC1-399ABFBE2DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E2824-C76C-429D-9178-AD2D73C0A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="750" windowWidth="21600" windowHeight="11385" xr2:uid="{3CC198BB-0DF2-4641-B507-81C8D0AA20EB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{3CC198BB-0DF2-4641-B507-81C8D0AA20EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
